--- a/output/compare/datasets_compare.xlsx
+++ b/output/compare/datasets_compare.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Andriu\Main\DOCUMENTOS\3. MACHINE LEARNING\PYTHON_PROYECTS\LPC_Finance\output\compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734C9E2E-76DB-4F55-8087-5C6C2B78832A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B9C3BC-C2E8-4548-B885-39AB5CEDBADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAX_DA" sheetId="1" r:id="rId1"/>
-    <sheet name="MIN_MAE" sheetId="2" r:id="rId2"/>
-    <sheet name="MIN_DIS" sheetId="3" r:id="rId3"/>
+    <sheet name="MIN_DIS" sheetId="3" r:id="rId2"/>
+    <sheet name="MIN_MAE" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -36,9 +36,6 @@
     <t>CV</t>
   </si>
   <si>
-    <t>MEANS ABSCV</t>
-  </si>
-  <si>
     <t>dataset</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>METRIC</t>
+  </si>
+  <si>
+    <t>MEANS ABSCV (%)</t>
   </si>
 </sst>
 </file>
@@ -333,34 +333,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -368,6 +349,26 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,8 +379,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,25 +683,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J36" sqref="A1:J36"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="14.85546875" customWidth="1"/>
+    <col min="2" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>46</v>
+      <c r="A1" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -710,7 +710,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -722,88 +722,88 @@
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="B5" s="5">
         <v>1500</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="2">
         <v>1500</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="2">
         <v>1500</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="2">
         <v>1500</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="2">
         <v>1500</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="2">
         <v>1500</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="4">
         <v>0</v>
       </c>
       <c r="J5" s="2">
@@ -811,31 +811,31 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5">
         <v>600</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="2">
         <v>40</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="2">
         <v>168.43249427917621</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="4">
         <v>0.98675642074714587</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="2">
         <v>600</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="2">
         <v>40</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="2">
         <v>221.77345537757441</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="4">
         <v>0.81857733887679252</v>
       </c>
       <c r="J6" s="2">
@@ -843,31 +843,31 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
         <v>30</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="2">
         <v>15.51716247139588</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="4">
         <v>0.6423685458858015</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="2">
         <v>30</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="2">
         <v>15.47139588100687</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="4">
         <v>0.6335589972408513</v>
       </c>
       <c r="J7" s="2">
@@ -875,31 +875,31 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
         <v>1693.5230207990951</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="2">
         <v>6.9523941244278733</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="2">
         <v>87.409543040427025</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="4">
         <v>1.3694533657633541</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="2">
         <v>4360.3867578749814</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="2">
         <v>10.210068389141311</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="2">
         <v>176.26888882413479</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="4">
         <v>1.620179908097394</v>
       </c>
       <c r="J8" s="2">
@@ -907,31 +907,31 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5">
         <v>0.59869870048744012</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="2">
         <v>6.3352431658078773E-2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="2">
         <v>0.33072112607081933</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="4">
         <v>0.42470051420029492</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="2">
         <v>0.60271116895140342</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="2">
         <v>7.7456714369930027E-2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="2">
         <v>0.28841595042630691</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="4">
         <v>0.48144659844402748</v>
       </c>
       <c r="J9" s="2">
@@ -939,31 +939,31 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="12">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5">
         <v>0.54504094631483169</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="2">
         <v>0.47375787263820851</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="2">
         <v>0.50903851257036759</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="4">
         <v>2.485766509356933E-2</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="2">
         <v>0.55255255255255253</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="2">
         <v>0.47949965253648369</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="2">
         <v>0.51474317355723709</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="4">
         <v>2.331053306530801E-2</v>
       </c>
       <c r="J10" s="2">
@@ -971,31 +971,31 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="12">
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5">
         <v>0.5577797998180164</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="2">
         <v>0.45138396025550043</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="2">
         <v>0.49694207675573482</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="4">
         <v>2.7854769312149689E-2</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="2">
         <v>0.55055055055055058</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="2">
         <v>0.47447447447447449</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="2">
         <v>0.50879659090468621</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="4">
         <v>2.5770489525272531E-2</v>
       </c>
       <c r="J11" s="2">
@@ -1003,31 +1003,31 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="12">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5">
         <v>0.30676603357533822</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="2">
         <v>2.1426002713233121E-3</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="2">
         <v>0.1127025522300394</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="4">
         <v>0.69690476000917556</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="2">
         <v>0.30416647008374942</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="2">
         <v>6.1462155616145153E-3</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="2">
         <v>9.1438163217592905E-2</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="4">
         <v>0.83338715337527491</v>
       </c>
       <c r="J12" s="2">
@@ -1035,31 +1035,31 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="12">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
         <v>1.4508509604529221</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="2">
         <v>1.3490130521016741</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="2">
         <v>1.401256497083899</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="4">
         <v>1.290351107055761E-2</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="2">
         <v>1.442914200447853</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="2">
         <v>1.337830254475429</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="2">
         <v>1.393101092023812</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="4">
         <v>1.23776825519135E-2</v>
       </c>
       <c r="J13" s="2">
@@ -1067,31 +1067,31 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5">
         <v>1.1501407965781381</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="2">
         <v>0.22620336957015991</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="2">
         <v>0.87638004522060919</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="4">
         <v>0.23701866388684609</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="2">
         <v>1.124528688113682</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="2">
         <v>0.33780780647302122</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="2">
         <v>0.8137049144232994</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="4">
         <v>0.22203770978346299</v>
       </c>
       <c r="J14" s="2">
@@ -1099,31 +1099,31 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="12">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5">
         <v>0.9529529529529529</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="2">
         <v>0.32145305003426999</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="2">
         <v>0.50170295845413104</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="4">
         <v>0.30691735654577051</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="2">
         <v>0.89489489489489493</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="2">
         <v>0.33927347498286498</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="2">
         <v>0.55532671651625976</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="4">
         <v>0.25081045683073072</v>
       </c>
       <c r="J15" s="2">
@@ -1131,31 +1131,31 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="12">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5">
         <v>0.35249291822169482</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="2">
         <v>-9.1915098863454656E-2</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="2">
         <v>0.1014692058709329</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="4">
         <v>0.89564933795214141</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="2">
         <v>0.38719074907703488</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="2">
         <v>-0.13784602776309879</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="2">
         <v>9.6195039313486969E-2</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="4">
         <v>0.97883498068078256</v>
       </c>
       <c r="J16" s="2">
@@ -1163,31 +1163,31 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="12">
+      <c r="A17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5">
         <v>8.6754806246937238E-2</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="2">
         <v>-0.15310867062938091</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="2">
         <v>-3.0155339865432951E-2</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="4">
         <v>-1.1913926213055119</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="2">
         <v>0.27026136537753248</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="2">
         <v>-0.13539137526096459</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="2">
         <v>-1.5425209884087999E-2</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="4">
         <v>-3.252599708303908</v>
       </c>
       <c r="J17" s="2">
@@ -1195,31 +1195,31 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="12">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5">
         <v>9.6767287158749909E-2</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="2">
         <v>-0.18049925907338449</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="2">
         <v>-3.8943763804599928E-2</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="4">
         <v>-1.2185865892982259</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="2">
         <v>9.352664091884412E-2</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="2">
         <v>-0.2394718257802996</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="2">
         <v>-6.798453093885333E-2</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="4">
         <v>-0.77634848944893031</v>
       </c>
       <c r="J18" s="2">
@@ -1227,31 +1227,31 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="12">
+      <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="5">
         <v>9.2477056177979217E-2</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="2">
         <v>-0.25307291085584749</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="2">
         <v>-9.4988901966020597E-2</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="4">
         <v>-0.70597051518871712</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="2">
         <v>0.1138472364743731</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="2">
         <v>-0.37388119079725829</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="2">
         <v>-9.8542719969071949E-2</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="4">
         <v>-0.79310203754046216</v>
       </c>
       <c r="J19" s="2">
@@ -1259,31 +1259,31 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="12">
+      <c r="A20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="5">
         <v>0.14469622854645831</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="2">
         <v>-0.1313750230877356</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="2">
         <v>2.207556791031259E-2</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="4">
         <v>2.2444238481975218</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="2">
         <v>0.14463334254611249</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="2">
         <v>-0.2332033547181574</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="2">
         <v>5.2501769484086091E-3</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="4">
         <v>10.238210711750311</v>
       </c>
       <c r="J20" s="2">
@@ -1291,31 +1291,31 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="12">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5">
         <v>129376.9996221726</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="2">
         <v>12.880732999999999</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="2">
         <v>2271.0822672431491</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="4">
         <v>3.0844719205918611</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="2">
         <v>46492.817740999999</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="2">
         <v>12.448252999999999</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="2">
         <v>2028.7965546929961</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="4">
         <v>1.896312323423929</v>
       </c>
       <c r="J21" s="2">
@@ -1323,31 +1323,31 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="12">
+      <c r="A22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5">
         <v>56.266248516349897</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="2">
         <v>6.1046627001993224E-3</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="2">
         <v>0.9562403454276287</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="4">
         <v>3.126561260838105</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="2">
         <v>17.34416468351052</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="2">
         <v>1.01703670980723E-2</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="2">
         <v>0.84885763560228655</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="4">
         <v>1.662373169984626</v>
       </c>
       <c r="J22" s="2">
@@ -1355,31 +1355,31 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="12">
+      <c r="A23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="5">
         <v>86.251333081448408</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="2">
         <v>8.5871553333333323E-3</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="2">
         <v>1.5140548448287661</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="4">
         <v>3.084471920591862</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="2">
         <v>30.995211827333328</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="2">
         <v>8.2988353333333324E-3</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="2">
         <v>1.352531036461998</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="4">
         <v>1.896312323423929</v>
       </c>
       <c r="J23" s="2">
@@ -1387,31 +1387,31 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="12">
+      <c r="A24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5">
         <v>2.8732564005932479</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="2">
         <v>0.40693272038109929</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="2">
         <v>0.71216033037414017</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="4">
         <v>0.4017184853738261</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="2">
         <v>2.1397448208886258</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="2">
         <v>0.4087789613765998</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="2">
         <v>0.72638463574813839</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="4">
         <v>0.41518673641409032</v>
       </c>
       <c r="J24" s="2">
@@ -1419,31 +1419,31 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="12">
+      <c r="A25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="5">
         <v>2.2229999999999999</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="2">
         <v>1.8009999999999999</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="2">
         <v>1.9885675057208241</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="4">
         <v>2.91617051541069E-2</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="2">
         <v>2.165</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="2">
         <v>1.835</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="2">
         <v>1.9867665903890159</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="4">
         <v>2.7147756671765281E-2</v>
       </c>
       <c r="J25" s="2">
@@ -1451,31 +1451,31 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="12">
+      <c r="A26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5">
         <v>1.657</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="2">
         <v>1.163</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="2">
         <v>1.40166590389016</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="4">
         <v>6.1138434254091767E-2</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="2">
         <v>1.6850000000000001</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="2">
         <v>1.1879999999999999</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="2">
         <v>1.399897025171625</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="4">
         <v>5.6350248517148427E-2</v>
       </c>
       <c r="J26" s="2">
@@ -1483,31 +1483,31 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="12">
+      <c r="A27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="5">
         <v>0.8</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="2">
         <v>0.625</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="2">
         <v>0.70445995423340946</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="4">
         <v>4.2425246578499803E-2</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="2">
         <v>0.80700000000000005</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="2">
         <v>0.63600000000000001</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="2">
         <v>0.70430205949656743</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="4">
         <v>3.9971533715896998E-2</v>
       </c>
       <c r="J27" s="2">
@@ -1515,31 +1515,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="12">
+      <c r="A28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="5">
         <v>831</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="2">
         <v>674</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="2">
         <v>753.47597254004575</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="4">
         <v>2.903616163412804E-2</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="2">
         <v>816</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="2">
         <v>692</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="2">
         <v>754.10755148741418</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="4">
         <v>2.6979601728122742E-2</v>
       </c>
       <c r="J28" s="2">
@@ -1547,31 +1547,31 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="12">
+      <c r="A29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="5">
         <v>2.3410000000000002</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="2">
         <v>1.841</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="2">
         <v>2.0809267734553778</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="4">
         <v>3.7489569843839797E-2</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="2">
         <v>2.3839999999999999</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="2">
         <v>1.8759999999999999</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="2">
         <v>2.096064073226545</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="4">
         <v>4.0962644639177662E-2</v>
       </c>
       <c r="J29" s="2">
@@ -1579,31 +1579,31 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="12">
+      <c r="A30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="5">
         <v>1.851</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="2">
         <v>1.236</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="2">
         <v>1.4846292906178491</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="4">
         <v>7.5715475385199821E-2</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="2">
         <v>1.9059999999999999</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="2">
         <v>1.22</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="2">
         <v>1.5003615560640731</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="4">
         <v>8.0572811350251197E-2</v>
       </c>
       <c r="J30" s="2">
@@ -1611,31 +1611,31 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="12">
+      <c r="A31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="5">
         <v>0.83199999999999996</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="2">
         <v>0.60299999999999998</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="2">
         <v>0.71292219679633873</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="4">
         <v>5.4052214952046762E-2</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="2">
         <v>0.85099999999999998</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="2">
         <v>0.624</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="2">
         <v>0.71512128146453102</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="4">
         <v>5.3359377971959873E-2</v>
       </c>
       <c r="J31" s="2">
@@ -1643,31 +1643,31 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="12">
+      <c r="A32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="5">
         <v>415</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="2">
         <v>333</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="2">
         <v>376.75743707093818</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="4">
         <v>2.9428652839644139E-2</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="2">
         <v>408</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="2">
         <v>346</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="2">
         <v>376.7482837528604</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="4">
         <v>2.735725096375238E-2</v>
       </c>
       <c r="J32" s="2">
@@ -1675,31 +1675,31 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="12">
+      <c r="A33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="5">
         <v>2.29</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="2">
         <v>1.6639999999999999</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="2">
         <v>1.8961556064073231</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="4">
         <v>4.3435852075895169E-2</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="2">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="2">
         <v>1.6619999999999999</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="2">
         <v>1.877549199084668</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="4">
         <v>4.4834662024784033E-2</v>
       </c>
       <c r="J33" s="2">
@@ -1707,31 +1707,31 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="12">
+      <c r="A34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="5">
         <v>1.782</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="2">
         <v>0.997</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="2">
         <v>1.302139588100687</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="4">
         <v>8.9183557358203061E-2</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="2">
         <v>1.704</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="2">
         <v>0.93600000000000005</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="2">
         <v>1.275260869565217</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="4">
         <v>8.7991744168476702E-2</v>
       </c>
       <c r="J34" s="2">
@@ -1739,31 +1739,31 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="12">
+      <c r="A35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="5">
         <v>0.83</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="2">
         <v>0.59299999999999997</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="2">
         <v>0.68590160183066373</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="4">
         <v>5.9783850682111783E-2</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="2">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="2">
         <v>0.55800000000000005</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="2">
         <v>0.67838672768878727</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="4">
         <v>5.7635551128383172E-2</v>
       </c>
       <c r="J35" s="2">
@@ -1771,31 +1771,31 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="12">
+      <c r="A36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="5">
         <v>416</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="2">
         <v>341</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="2">
         <v>376.71853546910762</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="4">
         <v>2.9032548432314769E-2</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="2">
         <v>408</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="2">
         <v>346</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="2">
         <v>377.35926773455378</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="4">
         <v>2.6881506910758649E-2</v>
       </c>
       <c r="J36" s="2">
@@ -1816,26 +1816,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>46</v>
+      <c r="A1" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1843,7 +1846,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1855,88 +1858,88 @@
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="B5" s="5">
         <v>1500</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="2">
         <v>1500</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="2">
         <v>1500</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="2">
         <v>1500</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="2">
         <v>1500</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="2">
         <v>1500</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="4">
         <v>0</v>
       </c>
       <c r="J5" s="2">
@@ -1944,511 +1947,511 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5">
+        <v>600</v>
+      </c>
+      <c r="C6" s="2">
+        <v>400</v>
+      </c>
+      <c r="D6" s="2">
+        <v>597.25400457665899</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.9647602256475909E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>600</v>
+      </c>
+      <c r="G6" s="2">
+        <v>300</v>
+      </c>
+      <c r="H6" s="2">
+        <v>582.83752860411903</v>
+      </c>
+      <c r="I6" s="4">
+        <v>9.6571802913703569E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="12">
-        <v>600</v>
-      </c>
-      <c r="C6" s="10">
-        <v>500</v>
-      </c>
-      <c r="D6" s="10">
-        <v>599.54233409610981</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1.1270827652676939E-2</v>
-      </c>
-      <c r="F6" s="10">
-        <v>600</v>
-      </c>
-      <c r="G6" s="10">
-        <v>400</v>
-      </c>
-      <c r="H6" s="10">
-        <v>592.44851258581241</v>
-      </c>
-      <c r="I6" s="11">
-        <v>5.3929355016051513E-2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0709382151029749</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.25611518052366228</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.5240274599542329</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.74030308537295808</v>
+      </c>
+      <c r="J7" s="2">
+        <v>24.69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1.0732265446224261</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.26646258156291119</v>
-      </c>
-      <c r="F7" s="10">
-        <v>6</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1.311212814645309</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0.44083510261898629</v>
-      </c>
-      <c r="J7" s="2">
-        <v>14.11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="B8" s="5">
+        <v>1679.1439172744961</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.9814088014760252</v>
+      </c>
+      <c r="D8" s="2">
+        <v>87.603658291778601</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.36290747016576</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4375.0212756172696</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10.161118831938831</v>
+      </c>
+      <c r="H8" s="2">
+        <v>177.0532781337038</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.6266039750813901</v>
+      </c>
+      <c r="J8" s="2">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12">
-        <v>1679.1439172744961</v>
-      </c>
-      <c r="C8" s="10">
-        <v>6.9814088014760252</v>
-      </c>
-      <c r="D8" s="10">
-        <v>87.60362234343684</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1.3629073399177709</v>
-      </c>
-      <c r="F8" s="10">
-        <v>4375.0212756172696</v>
-      </c>
-      <c r="G8" s="10">
-        <v>10.161118831938831</v>
-      </c>
-      <c r="H8" s="10">
-        <v>177.04245750696251</v>
-      </c>
-      <c r="I8" s="11">
-        <v>1.626679711593314</v>
-      </c>
-      <c r="J8" s="2">
-        <v>47.79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="B9" s="5">
+        <v>0.1573944125922899</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.5629780836199863E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9.5786297693045114E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.20098457767356739</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.21601995291896631</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5.2129557364981663E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.1152729316690595</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.18516423926484801</v>
+      </c>
+      <c r="J9" s="2">
+        <v>13.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="12">
-        <v>0.1573944125922899</v>
-      </c>
-      <c r="C9" s="10">
-        <v>5.5629780836199863E-2</v>
-      </c>
-      <c r="D9" s="10">
-        <v>9.5583054316770388E-2</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.2007801701996309</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.18032301860276781</v>
-      </c>
-      <c r="G9" s="10">
-        <v>5.2129557364981663E-2</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.1139933298275792</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0.17919468682765491</v>
-      </c>
-      <c r="J9" s="2">
-        <v>12.42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="B10" s="5">
+        <v>0.52836484983314791</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.42491657397107901</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.48351862122004952</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.523017549329454E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.54171301446051168</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.48887535680267558</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3.3309682811484803E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="12">
-        <v>0.52836484983314791</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.42491657397107901</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.48347414519337051</v>
-      </c>
-      <c r="E10" s="11">
-        <v>3.543503285191061E-2</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.54171301446051168</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.44827586206896552</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.48854365107498582</v>
-      </c>
-      <c r="I10" s="11">
-        <v>3.2934017310239531E-2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="B11" s="5">
+        <v>0.54754754754754753</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.45717463848720802</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.50102760007825531</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3.1704949610254739E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.5583982202447163</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.46496106785317021</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.51159236088864457</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2.9902079844654952E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="12">
-        <v>0.55172413793103448</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.45717463848720802</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.50101713598657827</v>
-      </c>
-      <c r="E11" s="11">
-        <v>3.1741643867738562E-2</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.5583982202447163</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.46496106785317021</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.51154396508449451</v>
-      </c>
-      <c r="I11" s="11">
-        <v>2.9942137980210611E-2</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="B12" s="5">
+        <v>3.5522569564504898E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.750565684687036E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7.8081589845843472E-3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.6073538165355139</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6.1041103577525568E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3.339027709897531E-3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.305808507344451E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.55634232823093255</v>
+      </c>
+      <c r="J12" s="2">
+        <v>35.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="12">
-        <v>3.5522569564504898E-2</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1.750565684687036E-3</v>
-      </c>
-      <c r="D12" s="10">
-        <v>7.8489203970504347E-3</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.6112620140070254</v>
-      </c>
-      <c r="F12" s="10">
-        <v>6.9320849454708705E-2</v>
-      </c>
-      <c r="G12" s="10">
-        <v>3.3434367578717441E-3</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1.340416943211185E-2</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0.59774335240855325</v>
-      </c>
-      <c r="J12" s="2">
-        <v>36.97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="B13" s="5">
+        <v>1.5166851038088569</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.37351396085639</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.4371380829583751</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.6479936522097251E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.4855627054164151</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.35393793881328</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.429677987599316</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.5959544241557419E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="12">
-        <v>1.5166851038088569</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1.37351396085639</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1.4371977524822519</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1.6573121285432809E-2</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1.4855627054164151</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1.35393793881328</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1.430146268283468</v>
-      </c>
-      <c r="I13" s="11">
-        <v>1.5763081890974369E-2</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="B14" s="5">
+        <v>0.75687431712561126</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.17648149326161289</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.43376018011452472</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.25216405677026299</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.88401615962345181</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.18866665225463131</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.52734312065864886</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.18553792978549019</v>
+      </c>
+      <c r="J14" s="2">
+        <v>13.77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="12">
-        <v>0.75687431712561126</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.17648149326161289</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.43278305952201862</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0.25200433774981862</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0.81080028854068864</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0.18866665225463131</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0.52462014598353779</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0.18179435275599021</v>
-      </c>
-      <c r="J14" s="2">
-        <v>13.57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="B15" s="5">
+        <v>0.96885428253615125</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.57397107897664068</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.83270807628764798</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8.7501180602691159E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.96440489432703003</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.50125104253544617</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.78090463404307675</v>
+      </c>
+      <c r="I15" s="4">
+        <v>8.9579421409119925E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="12">
-        <v>0.96885428253615125</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.57397107897664068</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.83340747018415839</v>
-      </c>
-      <c r="E15" s="11">
-        <v>8.7165903217576682E-2</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0.96440489432703003</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0.55951056729699666</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0.78324620940084488</v>
-      </c>
-      <c r="I15" s="11">
-        <v>8.6578855352474726E-2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="B16" s="5">
+        <v>0.1142343333164702</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-0.13640930336799639</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-8.6524469203194433E-3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-4.807700012056408</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.16703690015703099</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-0.24905627903100011</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-5.7017471341162078E-2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>-1.074881018217837</v>
+      </c>
+      <c r="J16" s="2">
+        <v>104.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="12">
-        <v>0.1142343333164702</v>
-      </c>
-      <c r="C16" s="10">
-        <v>-0.13640930336799639</v>
-      </c>
-      <c r="D16" s="10">
-        <v>-8.7179064369520363E-3</v>
-      </c>
-      <c r="E16" s="11">
-        <v>-4.7935310982863006</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0.16703690015703099</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-0.24905627903100011</v>
-      </c>
-      <c r="H16" s="10">
-        <v>-6.3209673790771151E-2</v>
-      </c>
-      <c r="I16" s="11">
-        <v>-0.98788137208170168</v>
-      </c>
-      <c r="J16" s="2">
-        <v>107.14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="B17" s="5">
+        <v>0.1223371297940752</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-0.12432404974733161</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-2.4532035375128589E-2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-1.534456726271519</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.28355582198386481</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-0.14397498679516699</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5.4965148648361523E-2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.99690928553659319</v>
+      </c>
+      <c r="J17" s="2">
+        <v>369.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="12">
-        <v>0.1223371297940752</v>
-      </c>
-      <c r="C17" s="10">
-        <v>-0.12432404974733161</v>
-      </c>
-      <c r="D17" s="10">
-        <v>-2.443197318877539E-2</v>
-      </c>
-      <c r="E17" s="11">
-        <v>-1.5462350897953969</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0.28355582198386481</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-8.0333226038672254E-2</v>
-      </c>
-      <c r="H17" s="10">
-        <v>5.8128199983057759E-2</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0.94209744361438996</v>
-      </c>
-      <c r="J17" s="2">
-        <v>346.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="B18" s="5">
+        <v>0.1115500230090965</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-0.14212962335331281</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-1.5064403212978609E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-2.757214432699425</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.14766670744124921</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-0.28826439100064499</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-7.5259838856004985E-2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>-0.90474688215099719</v>
+      </c>
+      <c r="J18" s="2">
+        <v>94.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="12">
-        <v>0.1115500230090965</v>
-      </c>
-      <c r="C18" s="10">
-        <v>-0.14212962335331281</v>
-      </c>
-      <c r="D18" s="10">
-        <v>-1.5135033372441349E-2</v>
-      </c>
-      <c r="E18" s="11">
-        <v>-2.7560418176835162</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0.14766670744124921</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-0.28826439100064499</v>
-      </c>
-      <c r="H18" s="10">
-        <v>-7.5711288602441695E-2</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-0.89700814666088813</v>
-      </c>
-      <c r="J18" s="2">
-        <v>94.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="B19" s="5">
+        <v>0.104110226055341</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-0.15842358264303899</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-8.4888096316647482E-3</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-4.5306071665088146</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.165909162046908</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-0.20765169460470481</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-2.8915223077354831E-2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>-1.8867445581400191</v>
+      </c>
+      <c r="J19" s="2">
+        <v>77.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="12">
-        <v>0.1073162805955865</v>
-      </c>
-      <c r="C19" s="10">
-        <v>-0.1358295187485877</v>
-      </c>
-      <c r="D19" s="10">
-        <v>-7.734958609938997E-3</v>
-      </c>
-      <c r="E19" s="11">
-        <v>-5.0905735512365764</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.165909162046908</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-0.20765169460470481</v>
-      </c>
-      <c r="H19" s="10">
-        <v>-4.1394704570507403E-2</v>
-      </c>
-      <c r="I19" s="11">
-        <v>-1.2813011140974151</v>
-      </c>
-      <c r="J19" s="2">
-        <v>96.89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="B20" s="5">
+        <v>0.1081998416164868</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-0.14173869519950841</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-1.471961985638749E-2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-2.8102339878708489</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.15071752988130191</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-0.26773219479285232</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-6.8387727153742695E-2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>-0.91811117490795735</v>
+      </c>
+      <c r="J20" s="2">
+        <v>91.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="12">
-        <v>0.1081998416164868</v>
-      </c>
-      <c r="C20" s="10">
-        <v>-0.14173869519950841</v>
-      </c>
-      <c r="D20" s="10">
-        <v>-1.486874915559898E-2</v>
-      </c>
-      <c r="E20" s="11">
-        <v>-2.790357414871373</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0.15071752988130191</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-0.26773219479285232</v>
-      </c>
-      <c r="H20" s="10">
-        <v>-7.2744759219131233E-2</v>
-      </c>
-      <c r="I20" s="11">
-        <v>-0.88149429728946782</v>
-      </c>
-      <c r="J20" s="2">
-        <v>93.42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="12">
+      <c r="B21" s="5">
         <v>129376.9996221726</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="2">
         <v>12.880732999999999</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="2">
         <v>2271.0822672431491</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="4">
         <v>3.0844719205918611</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="2">
         <v>46492.817740999999</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="2">
         <v>12.448252999999999</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="2">
         <v>2028.7965546929961</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="4">
         <v>1.896312323423929</v>
       </c>
       <c r="J21" s="2">
@@ -2456,31 +2459,31 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="12">
+      <c r="A22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5">
         <v>56.266248516349897</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="2">
         <v>6.1046627001993224E-3</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="2">
         <v>0.9562403454276287</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="4">
         <v>3.126561260838105</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="2">
         <v>17.34416468351052</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="2">
         <v>1.01703670980723E-2</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="2">
         <v>0.84885763560228655</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="4">
         <v>1.662373169984626</v>
       </c>
       <c r="J22" s="2">
@@ -2488,31 +2491,31 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="12">
+      <c r="A23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="5">
         <v>86.251333081448408</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="2">
         <v>8.5871553333333323E-3</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="2">
         <v>1.5140548448287661</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="4">
         <v>3.084471920591862</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="2">
         <v>30.995211827333328</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="2">
         <v>8.2988353333333324E-3</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="2">
         <v>1.352531036461998</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="4">
         <v>1.896312323423929</v>
       </c>
       <c r="J23" s="2">
@@ -2520,31 +2523,31 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="12">
+      <c r="A24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5">
         <v>2.8732564005932479</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="2">
         <v>0.40693272038109929</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="2">
         <v>0.71216033037414017</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="4">
         <v>0.4017184853738261</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="2">
         <v>2.1397448208886258</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="2">
         <v>0.4087789613765998</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="2">
         <v>0.72638463574813839</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="4">
         <v>0.41518673641409032</v>
       </c>
       <c r="J24" s="2">
@@ -2552,31 +2555,31 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="12">
+      <c r="A25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="5">
         <v>2.2229999999999999</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="2">
         <v>1.8009999999999999</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="2">
         <v>1.9885675057208241</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="4">
         <v>2.91617051541069E-2</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="2">
         <v>2.165</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="2">
         <v>1.835</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="2">
         <v>1.9867665903890159</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="4">
         <v>2.7147756671765281E-2</v>
       </c>
       <c r="J25" s="2">
@@ -2584,31 +2587,31 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="12">
+      <c r="A26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5">
         <v>1.657</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="2">
         <v>1.163</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="2">
         <v>1.40166590389016</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="4">
         <v>6.1138434254091767E-2</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="2">
         <v>1.6850000000000001</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="2">
         <v>1.1879999999999999</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="2">
         <v>1.399897025171625</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="4">
         <v>5.6350248517148427E-2</v>
       </c>
       <c r="J26" s="2">
@@ -2616,31 +2619,31 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="12">
+      <c r="A27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="5">
         <v>0.8</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="2">
         <v>0.625</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="2">
         <v>0.70445995423340946</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="4">
         <v>4.2425246578499803E-2</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="2">
         <v>0.80700000000000005</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="2">
         <v>0.63600000000000001</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="2">
         <v>0.70430205949656743</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="4">
         <v>3.9971533715896998E-2</v>
       </c>
       <c r="J27" s="2">
@@ -2648,31 +2651,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="12">
+      <c r="A28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="5">
         <v>831</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="2">
         <v>674</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="2">
         <v>753.47597254004575</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="4">
         <v>2.903616163412804E-2</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="2">
         <v>816</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="2">
         <v>692</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="2">
         <v>754.10755148741418</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="4">
         <v>2.6979601728122742E-2</v>
       </c>
       <c r="J28" s="2">
@@ -2680,31 +2683,31 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="12">
+      <c r="A29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="5">
         <v>2.3410000000000002</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="2">
         <v>1.841</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="2">
         <v>2.0809267734553778</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="4">
         <v>3.7489569843839797E-2</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="2">
         <v>2.3839999999999999</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="2">
         <v>1.8759999999999999</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="2">
         <v>2.096064073226545</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="4">
         <v>4.0962644639177662E-2</v>
       </c>
       <c r="J29" s="2">
@@ -2712,31 +2715,31 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="12">
+      <c r="A30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="5">
         <v>1.851</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="2">
         <v>1.236</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="2">
         <v>1.4846292906178491</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="4">
         <v>7.5715475385199821E-2</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="2">
         <v>1.9059999999999999</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="2">
         <v>1.22</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="2">
         <v>1.5003615560640731</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="4">
         <v>8.0572811350251197E-2</v>
       </c>
       <c r="J30" s="2">
@@ -2744,31 +2747,31 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="12">
+      <c r="A31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="5">
         <v>0.83199999999999996</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="2">
         <v>0.60299999999999998</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="2">
         <v>0.71292219679633873</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="4">
         <v>5.4052214952046762E-2</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="2">
         <v>0.85099999999999998</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="2">
         <v>0.624</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="2">
         <v>0.71512128146453102</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="4">
         <v>5.3359377971959873E-2</v>
       </c>
       <c r="J31" s="2">
@@ -2776,31 +2779,31 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="12">
+      <c r="A32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="5">
         <v>415</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="2">
         <v>333</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="2">
         <v>376.75743707093818</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="4">
         <v>2.9428652839644139E-2</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="2">
         <v>408</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="2">
         <v>346</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="2">
         <v>376.7482837528604</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="4">
         <v>2.735725096375238E-2</v>
       </c>
       <c r="J32" s="2">
@@ -2808,31 +2811,31 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="12">
+      <c r="A33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="5">
         <v>2.29</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="2">
         <v>1.6639999999999999</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="2">
         <v>1.8961556064073231</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="4">
         <v>4.3435852075895169E-2</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="2">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="2">
         <v>1.6619999999999999</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="2">
         <v>1.877549199084668</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="4">
         <v>4.4834662024784033E-2</v>
       </c>
       <c r="J33" s="2">
@@ -2840,31 +2843,31 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="12">
+      <c r="A34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="5">
         <v>1.782</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="2">
         <v>0.997</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="2">
         <v>1.302139588100687</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="4">
         <v>8.9183557358203061E-2</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="2">
         <v>1.704</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="2">
         <v>0.93600000000000005</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="2">
         <v>1.275260869565217</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="4">
         <v>8.7991744168476702E-2</v>
       </c>
       <c r="J34" s="2">
@@ -2872,31 +2875,31 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="12">
+      <c r="A35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="5">
         <v>0.83</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="2">
         <v>0.59299999999999997</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="2">
         <v>0.68590160183066373</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="4">
         <v>5.9783850682111783E-2</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="2">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="2">
         <v>0.55800000000000005</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="2">
         <v>0.67838672768878727</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="4">
         <v>5.7635551128383172E-2</v>
       </c>
       <c r="J35" s="2">
@@ -2904,31 +2907,31 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="12">
+      <c r="A36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="5">
         <v>416</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="2">
         <v>341</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="2">
         <v>376.71853546910762</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="4">
         <v>2.9032548432314769E-2</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="2">
         <v>408</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="2">
         <v>346</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="2">
         <v>377.35926773455378</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="4">
         <v>2.6881506910758649E-2</v>
       </c>
       <c r="J36" s="2">
@@ -2949,28 +2952,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="10" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>46</v>
+      <c r="A1" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2978,7 +2982,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2990,88 +2994,88 @@
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="B5" s="5">
         <v>1500</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="2">
         <v>1500</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="2">
         <v>1500</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="2">
         <v>1500</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="2">
         <v>1500</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="2">
         <v>1500</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="4">
         <v>0</v>
       </c>
       <c r="J5" s="2">
@@ -3079,511 +3083,511 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5">
+        <v>600</v>
+      </c>
+      <c r="C6" s="2">
+        <v>500</v>
+      </c>
+      <c r="D6" s="2">
+        <v>599.54233409610981</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.1270827652676939E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>600</v>
+      </c>
+      <c r="G6" s="2">
+        <v>400</v>
+      </c>
+      <c r="H6" s="2">
+        <v>592.44851258581241</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5.3929355016051513E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="12">
-        <v>600</v>
-      </c>
-      <c r="C6" s="10">
-        <v>400</v>
-      </c>
-      <c r="D6" s="10">
-        <v>597.25400457665899</v>
-      </c>
-      <c r="E6" s="11">
-        <v>2.9647602256475909E-2</v>
-      </c>
-      <c r="F6" s="10">
-        <v>600</v>
-      </c>
-      <c r="G6" s="10">
-        <v>300</v>
-      </c>
-      <c r="H6" s="10">
-        <v>582.83752860411903</v>
-      </c>
-      <c r="I6" s="11">
-        <v>9.6571802913703569E-2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0732265446224261</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.26646258156291119</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.311212814645309</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.44083510261898629</v>
+      </c>
+      <c r="J7" s="2">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1.0709382151029749</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.25611518052366228</v>
-      </c>
-      <c r="F7" s="10">
-        <v>10</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1.5240274599542329</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0.74030308537295808</v>
-      </c>
-      <c r="J7" s="2">
-        <v>24.69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="B8" s="5">
+        <v>1679.1439172744961</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.9814088014760252</v>
+      </c>
+      <c r="D8" s="2">
+        <v>87.60362234343684</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.3629073399177709</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4375.0212756172696</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10.161118831938831</v>
+      </c>
+      <c r="H8" s="2">
+        <v>177.04245750696251</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.626679711593314</v>
+      </c>
+      <c r="J8" s="2">
+        <v>47.79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12">
-        <v>1679.1439172744961</v>
-      </c>
-      <c r="C8" s="10">
-        <v>6.9814088014760252</v>
-      </c>
-      <c r="D8" s="10">
-        <v>87.603658291778601</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1.36290747016576</v>
-      </c>
-      <c r="F8" s="10">
-        <v>4375.0212756172696</v>
-      </c>
-      <c r="G8" s="10">
-        <v>10.161118831938831</v>
-      </c>
-      <c r="H8" s="10">
-        <v>177.0532781337038</v>
-      </c>
-      <c r="I8" s="11">
-        <v>1.6266039750813901</v>
-      </c>
-      <c r="J8" s="2">
-        <v>47.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="B9" s="5">
+        <v>0.1573944125922899</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.5629780836199863E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9.5583054316770388E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.2007801701996309</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.18032301860276781</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5.2129557364981663E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.1139933298275792</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.17919468682765491</v>
+      </c>
+      <c r="J9" s="2">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="12">
-        <v>0.1573944125922899</v>
-      </c>
-      <c r="C9" s="10">
-        <v>5.5629780836199863E-2</v>
-      </c>
-      <c r="D9" s="10">
-        <v>9.5786297693045114E-2</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.20098457767356739</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.21601995291896631</v>
-      </c>
-      <c r="G9" s="10">
-        <v>5.2129557364981663E-2</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.1152729316690595</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0.18516423926484801</v>
-      </c>
-      <c r="J9" s="2">
-        <v>13.06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="B10" s="5">
+        <v>0.52836484983314791</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.42491657397107901</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.48347414519337051</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.543503285191061E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.54171301446051168</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.48854365107498582</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3.2934017310239531E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="12">
-        <v>0.52836484983314791</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.42491657397107901</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.48351862122004952</v>
-      </c>
-      <c r="E10" s="11">
-        <v>3.523017549329454E-2</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.54171301446051168</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.44827586206896552</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.48887535680267558</v>
-      </c>
-      <c r="I10" s="11">
-        <v>3.3309682811484803E-2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="B11" s="5">
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.45717463848720802</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.50101713598657827</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3.1741643867738562E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.5583982202447163</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.46496106785317021</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.51154396508449451</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2.9942137980210611E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="12">
-        <v>0.54754754754754753</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.45717463848720802</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.50102760007825531</v>
-      </c>
-      <c r="E11" s="11">
-        <v>3.1704949610254739E-2</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.5583982202447163</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.46496106785317021</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.51159236088864457</v>
-      </c>
-      <c r="I11" s="11">
-        <v>2.9902079844654952E-2</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="B12" s="5">
+        <v>3.5522569564504898E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.750565684687036E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7.8489203970504347E-3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.6112620140070254</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6.9320849454708705E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3.3434367578717441E-3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.340416943211185E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.59774335240855325</v>
+      </c>
+      <c r="J12" s="2">
+        <v>36.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="12">
-        <v>3.5522569564504898E-2</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1.750565684687036E-3</v>
-      </c>
-      <c r="D12" s="10">
-        <v>7.8081589845843472E-3</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.6073538165355139</v>
-      </c>
-      <c r="F12" s="10">
-        <v>6.1041103577525568E-2</v>
-      </c>
-      <c r="G12" s="10">
-        <v>3.339027709897531E-3</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1.305808507344451E-2</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0.55634232823093255</v>
-      </c>
-      <c r="J12" s="2">
-        <v>35.58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="B13" s="5">
+        <v>1.5166851038088569</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.37351396085639</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.4371977524822519</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.6573121285432809E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.4855627054164151</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.35393793881328</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.430146268283468</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.5763081890974369E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="12">
-        <v>1.5166851038088569</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1.37351396085639</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1.4371380829583751</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1.6479936522097251E-2</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1.4855627054164151</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1.35393793881328</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1.429677987599316</v>
-      </c>
-      <c r="I13" s="11">
-        <v>1.5959544241557419E-2</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="B14" s="5">
+        <v>0.75687431712561126</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.17648149326161289</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.43278305952201862</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.25200433774981862</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.81080028854068864</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.18866665225463131</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.52462014598353779</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.18179435275599021</v>
+      </c>
+      <c r="J14" s="2">
+        <v>13.57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="12">
-        <v>0.75687431712561126</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.17648149326161289</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.43376018011452472</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0.25216405677026299</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0.88401615962345181</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0.18866665225463131</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0.52734312065864886</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0.18553792978549019</v>
-      </c>
-      <c r="J14" s="2">
-        <v>13.77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="B15" s="5">
+        <v>0.96885428253615125</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.57397107897664068</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.83340747018415839</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8.7165903217576682E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.96440489432703003</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.55951056729699666</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.78324620940084488</v>
+      </c>
+      <c r="I15" s="4">
+        <v>8.6578855352474726E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="12">
-        <v>0.96885428253615125</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.57397107897664068</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.83270807628764798</v>
-      </c>
-      <c r="E15" s="11">
-        <v>8.7501180602691159E-2</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0.96440489432703003</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0.50125104253544617</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0.78090463404307675</v>
-      </c>
-      <c r="I15" s="11">
-        <v>8.9579421409119925E-2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="B16" s="5">
+        <v>0.1142343333164702</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-0.13640930336799639</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-8.7179064369520363E-3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-4.7935310982863006</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.16703690015703099</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-0.24905627903100011</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-6.3209673790771151E-2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>-0.98788137208170168</v>
+      </c>
+      <c r="J16" s="2">
+        <v>107.14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="12">
-        <v>0.1142343333164702</v>
-      </c>
-      <c r="C16" s="10">
-        <v>-0.13640930336799639</v>
-      </c>
-      <c r="D16" s="10">
-        <v>-8.6524469203194433E-3</v>
-      </c>
-      <c r="E16" s="11">
-        <v>-4.807700012056408</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0.16703690015703099</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-0.24905627903100011</v>
-      </c>
-      <c r="H16" s="10">
-        <v>-5.7017471341162078E-2</v>
-      </c>
-      <c r="I16" s="11">
-        <v>-1.074881018217837</v>
-      </c>
-      <c r="J16" s="2">
-        <v>104.15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="B17" s="5">
+        <v>0.1223371297940752</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-0.12432404974733161</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-2.443197318877539E-2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-1.5462350897953969</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.28355582198386481</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-8.0333226038672254E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5.8128199983057759E-2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.94209744361438996</v>
+      </c>
+      <c r="J17" s="2">
+        <v>346.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="12">
-        <v>0.1223371297940752</v>
-      </c>
-      <c r="C17" s="10">
-        <v>-0.12432404974733161</v>
-      </c>
-      <c r="D17" s="10">
-        <v>-2.4532035375128589E-2</v>
-      </c>
-      <c r="E17" s="11">
-        <v>-1.534456726271519</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0.28355582198386481</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-0.14397498679516699</v>
-      </c>
-      <c r="H17" s="10">
-        <v>5.4965148648361523E-2</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0.99690928553659319</v>
-      </c>
-      <c r="J17" s="2">
-        <v>369.42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="B18" s="5">
+        <v>0.1115500230090965</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-0.14212962335331281</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-1.5135033372441349E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-2.7560418176835162</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.14766670744124921</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-0.28826439100064499</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-7.5711288602441695E-2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>-0.89700814666088813</v>
+      </c>
+      <c r="J18" s="2">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="12">
-        <v>0.1115500230090965</v>
-      </c>
-      <c r="C18" s="10">
-        <v>-0.14212962335331281</v>
-      </c>
-      <c r="D18" s="10">
-        <v>-1.5064403212978609E-2</v>
-      </c>
-      <c r="E18" s="11">
-        <v>-2.757214432699425</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0.14766670744124921</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-0.28826439100064499</v>
-      </c>
-      <c r="H18" s="10">
-        <v>-7.5259838856004985E-2</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-0.90474688215099719</v>
-      </c>
-      <c r="J18" s="2">
-        <v>94.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="B19" s="5">
+        <v>0.1073162805955865</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-0.1358295187485877</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-7.734958609938997E-3</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-5.0905735512365764</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.165909162046908</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-0.20765169460470481</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-4.1394704570507403E-2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>-1.2813011140974151</v>
+      </c>
+      <c r="J19" s="2">
+        <v>96.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="12">
-        <v>0.104110226055341</v>
-      </c>
-      <c r="C19" s="10">
-        <v>-0.15842358264303899</v>
-      </c>
-      <c r="D19" s="10">
-        <v>-8.4888096316647482E-3</v>
-      </c>
-      <c r="E19" s="11">
-        <v>-4.5306071665088146</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.165909162046908</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-0.20765169460470481</v>
-      </c>
-      <c r="H19" s="10">
-        <v>-2.8915223077354831E-2</v>
-      </c>
-      <c r="I19" s="11">
-        <v>-1.8867445581400191</v>
-      </c>
-      <c r="J19" s="2">
-        <v>77.23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="B20" s="5">
+        <v>0.1081998416164868</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-0.14173869519950841</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-1.486874915559898E-2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-2.790357414871373</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.15071752988130191</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-0.26773219479285232</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-7.2744759219131233E-2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>-0.88149429728946782</v>
+      </c>
+      <c r="J20" s="2">
+        <v>93.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="12">
-        <v>0.1081998416164868</v>
-      </c>
-      <c r="C20" s="10">
-        <v>-0.14173869519950841</v>
-      </c>
-      <c r="D20" s="10">
-        <v>-1.471961985638749E-2</v>
-      </c>
-      <c r="E20" s="11">
-        <v>-2.8102339878708489</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0.15071752988130191</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-0.26773219479285232</v>
-      </c>
-      <c r="H20" s="10">
-        <v>-6.8387727153742695E-2</v>
-      </c>
-      <c r="I20" s="11">
-        <v>-0.91811117490795735</v>
-      </c>
-      <c r="J20" s="2">
-        <v>91.33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="12">
+      <c r="B21" s="5">
         <v>129376.9996221726</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="2">
         <v>12.880732999999999</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="2">
         <v>2271.0822672431491</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="4">
         <v>3.0844719205918611</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="2">
         <v>46492.817740999999</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="2">
         <v>12.448252999999999</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="2">
         <v>2028.7965546929961</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="4">
         <v>1.896312323423929</v>
       </c>
       <c r="J21" s="2">
@@ -3591,31 +3595,31 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="12">
+      <c r="A22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5">
         <v>56.266248516349897</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="2">
         <v>6.1046627001993224E-3</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="2">
         <v>0.9562403454276287</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="4">
         <v>3.126561260838105</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="2">
         <v>17.34416468351052</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="2">
         <v>1.01703670980723E-2</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="2">
         <v>0.84885763560228655</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="4">
         <v>1.662373169984626</v>
       </c>
       <c r="J22" s="2">
@@ -3623,31 +3627,31 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="12">
+      <c r="A23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="5">
         <v>86.251333081448408</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="2">
         <v>8.5871553333333323E-3</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="2">
         <v>1.5140548448287661</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="4">
         <v>3.084471920591862</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="2">
         <v>30.995211827333328</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="2">
         <v>8.2988353333333324E-3</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="2">
         <v>1.352531036461998</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="4">
         <v>1.896312323423929</v>
       </c>
       <c r="J23" s="2">
@@ -3655,31 +3659,31 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="12">
+      <c r="A24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5">
         <v>2.8732564005932479</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="2">
         <v>0.40693272038109929</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="2">
         <v>0.71216033037414017</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="4">
         <v>0.4017184853738261</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="2">
         <v>2.1397448208886258</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="2">
         <v>0.4087789613765998</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="2">
         <v>0.72638463574813839</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="4">
         <v>0.41518673641409032</v>
       </c>
       <c r="J24" s="2">
@@ -3687,31 +3691,31 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="12">
+      <c r="A25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="5">
         <v>2.2229999999999999</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="2">
         <v>1.8009999999999999</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="2">
         <v>1.9885675057208241</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="4">
         <v>2.91617051541069E-2</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="2">
         <v>2.165</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="2">
         <v>1.835</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="2">
         <v>1.9867665903890159</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="4">
         <v>2.7147756671765281E-2</v>
       </c>
       <c r="J25" s="2">
@@ -3719,31 +3723,31 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="12">
+      <c r="A26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5">
         <v>1.657</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="2">
         <v>1.163</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="2">
         <v>1.40166590389016</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="4">
         <v>6.1138434254091767E-2</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="2">
         <v>1.6850000000000001</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="2">
         <v>1.1879999999999999</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="2">
         <v>1.399897025171625</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="4">
         <v>5.6350248517148427E-2</v>
       </c>
       <c r="J26" s="2">
@@ -3751,31 +3755,31 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="12">
+      <c r="A27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="5">
         <v>0.8</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="2">
         <v>0.625</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="2">
         <v>0.70445995423340946</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="4">
         <v>4.2425246578499803E-2</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="2">
         <v>0.80700000000000005</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="2">
         <v>0.63600000000000001</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="2">
         <v>0.70430205949656743</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="4">
         <v>3.9971533715896998E-2</v>
       </c>
       <c r="J27" s="2">
@@ -3783,31 +3787,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="12">
+      <c r="A28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="5">
         <v>831</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="2">
         <v>674</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="2">
         <v>753.47597254004575</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="4">
         <v>2.903616163412804E-2</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="2">
         <v>816</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="2">
         <v>692</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="2">
         <v>754.10755148741418</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="4">
         <v>2.6979601728122742E-2</v>
       </c>
       <c r="J28" s="2">
@@ -3815,31 +3819,31 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="12">
+      <c r="A29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="5">
         <v>2.3410000000000002</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="2">
         <v>1.841</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="2">
         <v>2.0809267734553778</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="4">
         <v>3.7489569843839797E-2</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="2">
         <v>2.3839999999999999</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="2">
         <v>1.8759999999999999</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="2">
         <v>2.096064073226545</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="4">
         <v>4.0962644639177662E-2</v>
       </c>
       <c r="J29" s="2">
@@ -3847,31 +3851,31 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="12">
+      <c r="A30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="5">
         <v>1.851</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="2">
         <v>1.236</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="2">
         <v>1.4846292906178491</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="4">
         <v>7.5715475385199821E-2</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="2">
         <v>1.9059999999999999</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="2">
         <v>1.22</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="2">
         <v>1.5003615560640731</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="4">
         <v>8.0572811350251197E-2</v>
       </c>
       <c r="J30" s="2">
@@ -3879,31 +3883,31 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="12">
+      <c r="A31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="5">
         <v>0.83199999999999996</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="2">
         <v>0.60299999999999998</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="2">
         <v>0.71292219679633873</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="4">
         <v>5.4052214952046762E-2</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="2">
         <v>0.85099999999999998</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="2">
         <v>0.624</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="2">
         <v>0.71512128146453102</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="4">
         <v>5.3359377971959873E-2</v>
       </c>
       <c r="J31" s="2">
@@ -3911,31 +3915,31 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="12">
+      <c r="A32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="5">
         <v>415</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="2">
         <v>333</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="2">
         <v>376.75743707093818</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="4">
         <v>2.9428652839644139E-2</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="2">
         <v>408</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="2">
         <v>346</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="2">
         <v>376.7482837528604</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="4">
         <v>2.735725096375238E-2</v>
       </c>
       <c r="J32" s="2">
@@ -3943,31 +3947,31 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="12">
+      <c r="A33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="5">
         <v>2.29</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="2">
         <v>1.6639999999999999</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="2">
         <v>1.8961556064073231</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="4">
         <v>4.3435852075895169E-2</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="2">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="2">
         <v>1.6619999999999999</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="2">
         <v>1.877549199084668</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="4">
         <v>4.4834662024784033E-2</v>
       </c>
       <c r="J33" s="2">
@@ -3975,31 +3979,31 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="12">
+      <c r="A34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="5">
         <v>1.782</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="2">
         <v>0.997</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="2">
         <v>1.302139588100687</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="4">
         <v>8.9183557358203061E-2</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="2">
         <v>1.704</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="2">
         <v>0.93600000000000005</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="2">
         <v>1.275260869565217</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="4">
         <v>8.7991744168476702E-2</v>
       </c>
       <c r="J34" s="2">
@@ -4007,31 +4011,31 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="12">
+      <c r="A35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="5">
         <v>0.83</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="2">
         <v>0.59299999999999997</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="2">
         <v>0.68590160183066373</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="4">
         <v>5.9783850682111783E-2</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="2">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="2">
         <v>0.55800000000000005</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="2">
         <v>0.67838672768878727</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="4">
         <v>5.7635551128383172E-2</v>
       </c>
       <c r="J35" s="2">
@@ -4039,31 +4043,31 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="12">
+      <c r="A36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="5">
         <v>416</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="2">
         <v>341</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="2">
         <v>376.71853546910762</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="4">
         <v>2.9032548432314769E-2</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="2">
         <v>408</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="2">
         <v>346</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="2">
         <v>377.35926773455378</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="4">
         <v>2.6881506910758649E-2</v>
       </c>
       <c r="J36" s="2">
